--- a/Data Sources/Uber uk city with start dates.xlsx
+++ b/Data Sources/Uber uk city with start dates.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\laughing-dollop\Data Sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\laughing-dollop\Data Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
   <si>
     <t>City</t>
   </si>
@@ -216,13 +215,16 @@
     <t>Y</t>
   </si>
   <si>
-    <t>y</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -325,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -342,6 +344,7 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -622,22 +625,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +658,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -665,8 +668,11 @@
       <c r="D2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -677,13 +683,13 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="4">
         <v>42522</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -700,7 +706,7 @@
         <v>42036</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -710,8 +716,14 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="4">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -721,10 +733,14 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="8">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -741,7 +757,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -758,7 +774,7 @@
         <v>42675</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -768,8 +784,11 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -786,7 +805,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -796,8 +815,11 @@
       <c r="D11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -807,28 +829,52 @@
       <c r="D12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="4">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="4">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="4">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>27</v>
       </c>
@@ -839,42 +885,69 @@
         <v>43009</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="4">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="4">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>9</v>
       </c>
@@ -885,17 +958,23 @@
         <v>42309</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
         <v>36</v>
       </c>
@@ -906,7 +985,7 @@
         <v>42217</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
         <v>2</v>
       </c>
@@ -917,7 +996,7 @@
         <v>41091</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
         <v>4</v>
       </c>
@@ -928,7 +1007,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>37</v>
       </c>
@@ -939,7 +1018,7 @@
         <v>42095</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>38</v>
       </c>
@@ -950,7 +1029,7 @@
         <v>42644</v>
       </c>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>39</v>
       </c>
@@ -958,7 +1037,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>10</v>
       </c>
@@ -969,12 +1048,15 @@
         <v>42309</v>
       </c>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>41</v>
       </c>
@@ -985,13 +1067,13 @@
         <v>42675</v>
       </c>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>42</v>
       </c>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
         <v>43</v>
       </c>
@@ -1002,42 +1084,42 @@
         <v>42309</v>
       </c>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D44" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>11</v>
       </c>
@@ -1048,7 +1130,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
         <v>50</v>
       </c>
@@ -1059,12 +1141,12 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D49" t="s">
         <v>52</v>
       </c>
@@ -1076,32 +1158,32 @@
       </c>
       <c r="K49" s="6"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D54" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D55" t="s">
         <v>14</v>
       </c>
@@ -1112,12 +1194,12 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D56" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
         <v>12</v>
       </c>
